--- a/data/combined/EU 1M.xlsx
+++ b/data/combined/EU 1M.xlsx
@@ -2084,7 +2084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2804,19 +2804,19 @@
         <v>-4382068</v>
       </c>
       <c r="S6" t="n">
-        <v>4613632</v>
+        <v>4613605</v>
       </c>
       <c r="T6" t="n">
         <v>-1231</v>
       </c>
       <c r="U6" t="n">
-        <v>20171037.5</v>
+        <v>20171112.75</v>
       </c>
       <c r="V6" t="n">
         <v>-738</v>
       </c>
       <c r="W6" t="n">
-        <v>11731477.5</v>
+        <v>11731429.75</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -2872,10 +2872,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5213726</v>
+        <v>5242150</v>
       </c>
       <c r="D7" t="n">
-        <v>10239610.75</v>
+        <v>10299004.75</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2887,19 +2887,19 @@
         <v>-58743</v>
       </c>
       <c r="H7" t="n">
-        <v>17939331.75</v>
+        <v>18068068.75</v>
       </c>
       <c r="I7" t="n">
         <v>-13066.75</v>
       </c>
       <c r="J7" t="n">
-        <v>5361421.5</v>
+        <v>5365947.5</v>
       </c>
       <c r="K7" t="n">
         <v>-505.5</v>
       </c>
       <c r="L7" t="n">
-        <v>552062</v>
+        <v>552110</v>
       </c>
       <c r="M7" t="n">
         <v>109573</v>
@@ -2917,22 +2917,22 @@
         <v>320314.5</v>
       </c>
       <c r="R7" t="n">
-        <v>-3314794</v>
+        <v>-3378457</v>
       </c>
       <c r="S7" t="n">
-        <v>3802573</v>
+        <v>3877302.5</v>
       </c>
       <c r="T7" t="n">
         <v>-722</v>
       </c>
       <c r="U7" t="n">
-        <v>16264571.25</v>
+        <v>16671642.5</v>
       </c>
       <c r="V7" t="n">
         <v>-638</v>
       </c>
       <c r="W7" t="n">
-        <v>9201770.5</v>
+        <v>9328227.25</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -2941,43 +2941,145 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>40277846</v>
+        <v>40677593</v>
       </c>
       <c r="AA7" t="n">
         <v>-137494.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>2148833.75</v>
+        <v>2214353.75</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>323891.5</v>
+        <v>326324.5</v>
       </c>
       <c r="AE7" t="n">
         <v>-143.75</v>
       </c>
       <c r="AF7" t="n">
-        <v>25417857.5</v>
+        <v>25720792.75</v>
       </c>
       <c r="AG7" t="n">
         <v>-81.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1276765.75</v>
+        <v>1313587.75</v>
       </c>
       <c r="AI7" t="n">
-        <v>-6469</v>
+        <v>-7141</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3362980.5</v>
+        <v>3399682.5</v>
       </c>
       <c r="AK7" t="n">
         <v>-491.75</v>
       </c>
       <c r="AL7" t="n">
-        <v>19170827.5</v>
+        <v>19298642.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25560</v>
+      </c>
+      <c r="D8" t="n">
+        <v>92182</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>94160.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4008</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-23287.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>88677.75</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>424616.75</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>105936.25</v>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="n">
+        <v>400209</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34929</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2458</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>237475</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>21719</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>46405</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>174829.25</v>
       </c>
     </row>
   </sheetData>
@@ -15919,9 +16021,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6501F128-AE3E-46EB-A35C-A051C714BA82}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40032C75-7788-4548-91A5-CA4E24635841}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9FF4E92-92EC-4DA8-B825-8E1540E00E3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965387C6-46CD-4EB6-BC54-4C1A42AA61C4}"/>
 </file>